--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hgf-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hgf-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.01134666666666667</v>
+        <v>0.1929763333333333</v>
       </c>
       <c r="H2">
-        <v>0.03404</v>
+        <v>0.578929</v>
       </c>
       <c r="I2">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="J2">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6766796666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N2">
-        <v>2.030039</v>
+        <v>8.024505</v>
       </c>
       <c r="O2">
-        <v>0.009246943144590633</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P2">
-        <v>0.009246943144590635</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q2">
-        <v>0.007678058617777777</v>
+        <v>0.5161798505716666</v>
       </c>
       <c r="R2">
-        <v>0.06910252756</v>
+        <v>4.645618655145</v>
       </c>
       <c r="S2">
-        <v>1.551138261188838E-06</v>
+        <v>0.0001223298538396843</v>
       </c>
       <c r="T2">
-        <v>1.551138261188838E-06</v>
+        <v>0.0001223298538396843</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.01134666666666667</v>
+        <v>0.1929763333333333</v>
       </c>
       <c r="H3">
-        <v>0.03404</v>
+        <v>0.578929</v>
       </c>
       <c r="I3">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="J3">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>137.100929</v>
       </c>
       <c r="O3">
-        <v>0.624502531987591</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P3">
-        <v>0.6245025319875911</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q3">
-        <v>0.5185461803511111</v>
+        <v>8.819078191671222</v>
       </c>
       <c r="R3">
-        <v>4.66691562316</v>
+        <v>79.371703725041</v>
       </c>
       <c r="S3">
-        <v>0.0001047578379609625</v>
+        <v>0.002090040021889816</v>
       </c>
       <c r="T3">
-        <v>0.0001047578379609625</v>
+        <v>0.002090040021889816</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.01134666666666667</v>
+        <v>0.1929763333333333</v>
       </c>
       <c r="H4">
-        <v>0.03404</v>
+        <v>0.578929</v>
       </c>
       <c r="I4">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="J4">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.65531</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N4">
-        <v>79.96592999999999</v>
+        <v>34.382999</v>
       </c>
       <c r="O4">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P4">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q4">
-        <v>0.3024489174666666</v>
+        <v>2.211701692007889</v>
       </c>
       <c r="R4">
-        <v>2.7220402572</v>
+        <v>19.905315228071</v>
       </c>
       <c r="S4">
-        <v>6.110139441387496E-05</v>
+        <v>0.0005241528595520861</v>
       </c>
       <c r="T4">
-        <v>6.110139441387497E-05</v>
+        <v>0.000524152859552086</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.01134666666666667</v>
+        <v>0.1929763333333333</v>
       </c>
       <c r="H5">
-        <v>0.03404</v>
+        <v>0.578929</v>
       </c>
       <c r="I5">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="J5">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,33 +747,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1464426666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N5">
-        <v>0.439328</v>
+        <v>0.016902</v>
       </c>
       <c r="O5">
-        <v>0.002001164035679469</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P5">
-        <v>0.00200116403567947</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q5">
-        <v>0.001661636124444444</v>
+        <v>0.001087228662</v>
       </c>
       <c r="R5">
-        <v>0.01495472512</v>
+        <v>0.009785057958</v>
       </c>
       <c r="S5">
-        <v>3.356873784255228E-07</v>
+        <v>2.576631442809675E-07</v>
       </c>
       <c r="T5">
-        <v>3.356873784255228E-07</v>
+        <v>2.576631442809675E-07</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.252770333333333</v>
+        <v>0.1929763333333333</v>
       </c>
       <c r="H6">
-        <v>15.758311</v>
+        <v>0.578929</v>
       </c>
       <c r="I6">
-        <v>0.07765553910739642</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="J6">
-        <v>0.07765553910739642</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.6766796666666667</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N6">
-        <v>2.030039</v>
+        <v>0.029028</v>
       </c>
       <c r="O6">
-        <v>0.009246943144590633</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P6">
-        <v>0.009246943144590635</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q6">
-        <v>3.554442878236556</v>
+        <v>0.001867239001333334</v>
       </c>
       <c r="R6">
-        <v>31.989985904129</v>
+        <v>0.016805151012</v>
       </c>
       <c r="S6">
-        <v>0.0007180763549886292</v>
+        <v>4.425183855276254E-07</v>
       </c>
       <c r="T6">
-        <v>0.0007180763549886293</v>
+        <v>4.425183855276253E-07</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>15.758311</v>
       </c>
       <c r="I7">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="J7">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.70030966666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N7">
-        <v>137.100929</v>
+        <v>8.024505</v>
       </c>
       <c r="O7">
-        <v>0.624502531987591</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P7">
-        <v>0.6245025319875911</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q7">
-        <v>240.0532308412132</v>
+        <v>14.05029393456167</v>
       </c>
       <c r="R7">
-        <v>2160.479077570919</v>
+        <v>126.452645411055</v>
       </c>
       <c r="S7">
-        <v>0.04849608079543045</v>
+        <v>0.003329789803914279</v>
       </c>
       <c r="T7">
-        <v>0.04849608079543046</v>
+        <v>0.003329789803914279</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>15.758311</v>
       </c>
       <c r="I8">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="J8">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.65531</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N8">
-        <v>79.96592999999999</v>
+        <v>137.100929</v>
       </c>
       <c r="O8">
-        <v>0.3642493608321389</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P8">
-        <v>0.3642493608321389</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q8">
-        <v>140.0142215938033</v>
+        <v>240.0532308412132</v>
       </c>
       <c r="R8">
-        <v>1260.12799434423</v>
+        <v>2160.479077570919</v>
       </c>
       <c r="S8">
-        <v>0.02828598048494431</v>
+        <v>0.05689039703899189</v>
       </c>
       <c r="T8">
-        <v>0.02828598048494432</v>
+        <v>0.05689039703899189</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>15.758311</v>
       </c>
       <c r="I9">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="J9">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1464426666666667</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N9">
-        <v>0.439328</v>
+        <v>34.382999</v>
       </c>
       <c r="O9">
-        <v>0.002001164035679469</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P9">
-        <v>0.00200116403567947</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q9">
-        <v>0.7692296950008889</v>
+        <v>60.20199903940988</v>
       </c>
       <c r="R9">
-        <v>6.923067255008</v>
+        <v>541.817991354689</v>
       </c>
       <c r="S9">
-        <v>0.0001554014720330223</v>
+        <v>0.01426731736078361</v>
       </c>
       <c r="T9">
-        <v>0.0001554014720330223</v>
+        <v>0.01426731736078361</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>20.094113</v>
+        <v>5.252770333333333</v>
       </c>
       <c r="H10">
-        <v>60.28233899999999</v>
+        <v>15.758311</v>
       </c>
       <c r="I10">
-        <v>0.2970659440405655</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="J10">
-        <v>0.2970659440405655</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.6766796666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N10">
-        <v>2.030039</v>
+        <v>0.016902</v>
       </c>
       <c r="O10">
-        <v>0.009246943144590633</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P10">
-        <v>0.009246943144590635</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q10">
-        <v>13.59727768680233</v>
+        <v>0.029594108058</v>
       </c>
       <c r="R10">
-        <v>122.375499181221</v>
+        <v>0.266346972522</v>
       </c>
       <c r="S10">
-        <v>0.002746951894737252</v>
+        <v>7.013530088866436E-06</v>
       </c>
       <c r="T10">
-        <v>0.002746951894737253</v>
+        <v>7.013530088866435E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>20.094113</v>
+        <v>5.252770333333333</v>
       </c>
       <c r="H11">
-        <v>60.28233899999999</v>
+        <v>15.758311</v>
       </c>
       <c r="I11">
-        <v>0.2970659440405655</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="J11">
-        <v>0.2970659440405655</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>45.70030966666667</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N11">
-        <v>137.100929</v>
+        <v>0.029028</v>
       </c>
       <c r="O11">
-        <v>0.624502531987591</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P11">
-        <v>0.6245025319875911</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q11">
-        <v>918.3071865769922</v>
+        <v>0.05082580574533334</v>
       </c>
       <c r="R11">
-        <v>8264.764679192931</v>
+        <v>0.4574322517080001</v>
       </c>
       <c r="S11">
-        <v>0.1855184342206172</v>
+        <v>1.204524620870991E-05</v>
       </c>
       <c r="T11">
-        <v>0.1855184342206172</v>
+        <v>1.204524620870991E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>20.094113</v>
+        <v>15.82150366666667</v>
       </c>
       <c r="H12">
-        <v>60.28233899999999</v>
+        <v>47.464511</v>
       </c>
       <c r="I12">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="J12">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.65531</v>
+        <v>2.674835</v>
       </c>
       <c r="N12">
-        <v>79.96592999999999</v>
+        <v>8.024505</v>
       </c>
       <c r="O12">
-        <v>0.3642493608321389</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P12">
-        <v>0.3642493608321389</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q12">
-        <v>535.6148111900299</v>
+        <v>42.31991176022833</v>
       </c>
       <c r="R12">
-        <v>4820.533300710269</v>
+        <v>380.879205842055</v>
       </c>
       <c r="S12">
-        <v>0.1082060802417719</v>
+        <v>0.01002942794919945</v>
       </c>
       <c r="T12">
-        <v>0.1082060802417719</v>
+        <v>0.01002942794919945</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,61 +1225,61 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>20.094113</v>
+        <v>15.82150366666667</v>
       </c>
       <c r="H13">
-        <v>60.28233899999999</v>
+        <v>47.464511</v>
       </c>
       <c r="I13">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="J13">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1464426666666667</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N13">
-        <v>0.439328</v>
+        <v>137.100929</v>
       </c>
       <c r="O13">
-        <v>0.002001164035679469</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P13">
-        <v>0.00200116403567947</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q13">
-        <v>2.942635492021333</v>
+        <v>723.0476169589688</v>
       </c>
       <c r="R13">
-        <v>26.483719428192</v>
+        <v>6507.428552630719</v>
       </c>
       <c r="S13">
-        <v>0.0005944776834391494</v>
+        <v>0.171355602516767</v>
       </c>
       <c r="T13">
-        <v>0.0005944776834391495</v>
+        <v>0.171355602516767</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
         <v>3</v>
       </c>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.196276666666667</v>
+        <v>15.82150366666667</v>
       </c>
       <c r="H14">
-        <v>3.588830000000001</v>
+        <v>47.464511</v>
       </c>
       <c r="I14">
-        <v>0.01768543141551132</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="J14">
-        <v>0.01768543141551131</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,33 +1305,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6766796666666667</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N14">
-        <v>2.030039</v>
+        <v>34.382999</v>
       </c>
       <c r="O14">
-        <v>0.009246943144590633</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P14">
-        <v>0.009246943144590635</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q14">
-        <v>0.8094960960411113</v>
+        <v>181.3302482498321</v>
       </c>
       <c r="R14">
-        <v>7.285464864370001</v>
+        <v>1631.972234248489</v>
       </c>
       <c r="S14">
-        <v>0.0001635361787867902</v>
+        <v>0.04297359290671472</v>
       </c>
       <c r="T14">
-        <v>0.0001635361787867902</v>
+        <v>0.04297359290671472</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,51 +1349,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.196276666666667</v>
+        <v>15.82150366666667</v>
       </c>
       <c r="H15">
-        <v>3.588830000000001</v>
+        <v>47.464511</v>
       </c>
       <c r="I15">
-        <v>0.01768543141551132</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="J15">
-        <v>0.01768543141551131</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>45.70030966666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N15">
-        <v>137.100929</v>
+        <v>0.016902</v>
       </c>
       <c r="O15">
-        <v>0.624502531987591</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P15">
-        <v>0.6245025319875911</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q15">
-        <v>54.67021411367445</v>
+        <v>0.08913835165800001</v>
       </c>
       <c r="R15">
-        <v>492.0319270230701</v>
+        <v>0.802245164922</v>
       </c>
       <c r="S15">
-        <v>0.0110445966982797</v>
+        <v>2.112496548975534E-05</v>
       </c>
       <c r="T15">
-        <v>0.0110445966982797</v>
+        <v>2.112496548975533E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.196276666666667</v>
+        <v>15.82150366666667</v>
       </c>
       <c r="H16">
-        <v>3.588830000000001</v>
+        <v>47.464511</v>
       </c>
       <c r="I16">
-        <v>0.01768543141551132</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="J16">
-        <v>0.01768543141551131</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>26.65531</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N16">
-        <v>79.96592999999999</v>
+        <v>0.029028</v>
       </c>
       <c r="O16">
-        <v>0.3642493608321389</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P16">
-        <v>0.3642493608321389</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q16">
-        <v>31.88712539576667</v>
+        <v>0.1530888694786667</v>
       </c>
       <c r="R16">
-        <v>286.9841285619</v>
+        <v>1.377799825308</v>
       </c>
       <c r="S16">
-        <v>0.006441907089140626</v>
+        <v>3.628064715634942E-05</v>
       </c>
       <c r="T16">
-        <v>0.006441907089140626</v>
+        <v>3.628064715634942E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.196276666666667</v>
+        <v>0.1345413333333333</v>
       </c>
       <c r="H17">
-        <v>3.588830000000001</v>
+        <v>0.403624</v>
       </c>
       <c r="I17">
-        <v>0.01768543141551132</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="J17">
-        <v>0.01768543141551131</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1464426666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N17">
-        <v>0.439328</v>
+        <v>8.024505</v>
       </c>
       <c r="O17">
-        <v>0.002001164035679469</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P17">
-        <v>0.00200116403567947</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q17">
-        <v>0.1751859451377778</v>
+        <v>0.3598758673466666</v>
       </c>
       <c r="R17">
-        <v>1.57667350624</v>
+        <v>3.23888280612</v>
       </c>
       <c r="S17">
-        <v>3.539144930419709E-05</v>
+        <v>8.528725444085327E-05</v>
       </c>
       <c r="T17">
-        <v>3.539144930419709E-05</v>
+        <v>8.528725444085326E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.43587433333334</v>
+        <v>0.1345413333333333</v>
       </c>
       <c r="H18">
-        <v>46.30762300000001</v>
+        <v>0.403624</v>
       </c>
       <c r="I18">
-        <v>0.2281998006542117</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="J18">
-        <v>0.2281998006542116</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.6766796666666667</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N18">
-        <v>2.030039</v>
+        <v>137.100929</v>
       </c>
       <c r="O18">
-        <v>0.009246943144590633</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P18">
-        <v>0.009246943144590635</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q18">
-        <v>10.44514229858856</v>
+        <v>6.148580596299555</v>
       </c>
       <c r="R18">
-        <v>94.00628068729701</v>
+        <v>55.337225366696</v>
       </c>
       <c r="S18">
-        <v>0.002110150582256412</v>
+        <v>0.001457156773620349</v>
       </c>
       <c r="T18">
-        <v>0.002110150582256412</v>
+        <v>0.001457156773620349</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.43587433333334</v>
+        <v>0.1345413333333333</v>
       </c>
       <c r="H19">
-        <v>46.30762300000001</v>
+        <v>0.403624</v>
       </c>
       <c r="I19">
-        <v>0.2281998006542117</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="J19">
-        <v>0.2281998006542116</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,43 +1615,43 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>45.70030966666667</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N19">
-        <v>137.100929</v>
+        <v>34.382999</v>
       </c>
       <c r="O19">
-        <v>0.624502531987591</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P19">
-        <v>0.6245025319875911</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q19">
-        <v>705.4242370090853</v>
+        <v>1.541978176486222</v>
       </c>
       <c r="R19">
-        <v>6348.818133081768</v>
+        <v>13.877803588376</v>
       </c>
       <c r="S19">
-        <v>0.1425113533076187</v>
+        <v>0.0003654345762327525</v>
       </c>
       <c r="T19">
-        <v>0.1425113533076187</v>
+        <v>0.0003654345762327525</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
       <c r="E20">
         <v>3</v>
       </c>
@@ -1659,51 +1659,51 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.43587433333334</v>
+        <v>0.1345413333333333</v>
       </c>
       <c r="H20">
-        <v>46.30762300000001</v>
+        <v>0.403624</v>
       </c>
       <c r="I20">
-        <v>0.2281998006542117</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="J20">
-        <v>0.2281998006542116</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>26.65531</v>
+        <v>0.005634</v>
       </c>
       <c r="N20">
-        <v>79.96592999999999</v>
+        <v>0.016902</v>
       </c>
       <c r="O20">
-        <v>0.3642493608321389</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P20">
-        <v>0.3642493608321389</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q20">
-        <v>411.4480154760433</v>
+        <v>0.0007580058719999999</v>
       </c>
       <c r="R20">
-        <v>3703.03213928439</v>
+        <v>0.006822052848</v>
       </c>
       <c r="S20">
-        <v>0.08312163153031811</v>
+        <v>1.796403858629663E-07</v>
       </c>
       <c r="T20">
-        <v>0.08312163153031811</v>
+        <v>1.796403858629663E-07</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.43587433333334</v>
+        <v>0.1345413333333333</v>
       </c>
       <c r="H21">
-        <v>46.30762300000001</v>
+        <v>0.403624</v>
       </c>
       <c r="I21">
-        <v>0.2281998006542117</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="J21">
-        <v>0.2281998006542116</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,33 +1739,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.1464426666666667</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N21">
-        <v>0.439328</v>
+        <v>0.029028</v>
       </c>
       <c r="O21">
-        <v>0.002001164035679469</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P21">
-        <v>0.00200116403567947</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q21">
-        <v>2.260470599704889</v>
+        <v>0.001301821941333333</v>
       </c>
       <c r="R21">
-        <v>20.344235397344</v>
+        <v>0.011716397472</v>
       </c>
       <c r="S21">
-        <v>0.0004566652340184325</v>
+        <v>3.085197681239016E-07</v>
       </c>
       <c r="T21">
-        <v>0.0004566652340184326</v>
+        <v>3.085197681239016E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.65154633333333</v>
+        <v>20.04269466666667</v>
       </c>
       <c r="H22">
-        <v>76.954639</v>
+        <v>60.128084</v>
       </c>
       <c r="I22">
-        <v>0.3792255387243007</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="J22">
-        <v>0.3792255387243007</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,33 +1801,33 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.6766796666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N22">
-        <v>2.030039</v>
+        <v>8.024505</v>
       </c>
       <c r="O22">
-        <v>0.009246943144590633</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P22">
-        <v>0.009246943144590635</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q22">
-        <v>17.35787982232456</v>
+        <v>53.61090118871333</v>
       </c>
       <c r="R22">
-        <v>156.220918400921</v>
+        <v>482.49811069842</v>
       </c>
       <c r="S22">
-        <v>0.003506676995560362</v>
+        <v>0.01270528808779705</v>
       </c>
       <c r="T22">
-        <v>0.003506676995560363</v>
+        <v>0.01270528808779705</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.65154633333333</v>
+        <v>20.04269466666667</v>
       </c>
       <c r="H23">
-        <v>76.954639</v>
+        <v>60.128084</v>
       </c>
       <c r="I23">
-        <v>0.3792255387243007</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="J23">
-        <v>0.3792255387243007</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,27 +1869,27 @@
         <v>137.100929</v>
       </c>
       <c r="O23">
-        <v>0.624502531987591</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P23">
-        <v>0.6245025319875911</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q23">
-        <v>1172.283610862181</v>
+        <v>915.9573528211151</v>
       </c>
       <c r="R23">
-        <v>10550.55249775963</v>
+        <v>8243.616175390036</v>
       </c>
       <c r="S23">
-        <v>0.236827309127684</v>
+        <v>0.2170734269652284</v>
       </c>
       <c r="T23">
-        <v>0.2368273091276841</v>
+        <v>0.2170734269652284</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.65154633333333</v>
+        <v>20.04269466666667</v>
       </c>
       <c r="H24">
-        <v>76.954639</v>
+        <v>60.128084</v>
       </c>
       <c r="I24">
-        <v>0.3792255387243007</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="J24">
-        <v>0.3792255387243007</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,33 +1925,33 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>26.65531</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N24">
-        <v>79.96592999999999</v>
+        <v>34.382999</v>
       </c>
       <c r="O24">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P24">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q24">
-        <v>683.7499194943632</v>
+        <v>229.7093168937684</v>
       </c>
       <c r="R24">
-        <v>6153.749275449269</v>
+        <v>2067.383852043916</v>
       </c>
       <c r="S24">
-        <v>0.1381326600915501</v>
+        <v>0.05443898503614093</v>
       </c>
       <c r="T24">
-        <v>0.1381326600915501</v>
+        <v>0.05443898503614093</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.65154633333333</v>
+        <v>20.04269466666667</v>
       </c>
       <c r="H25">
-        <v>76.954639</v>
+        <v>60.128084</v>
       </c>
       <c r="I25">
-        <v>0.3792255387243007</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="J25">
-        <v>0.3792255387243007</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1987,28 +1987,400 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.1464426666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N25">
-        <v>0.439328</v>
+        <v>0.016902</v>
       </c>
       <c r="O25">
-        <v>0.002001164035679469</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P25">
-        <v>0.00200116403567947</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q25">
-        <v>3.756480849176889</v>
+        <v>0.112920541752</v>
       </c>
       <c r="R25">
-        <v>33.808327642592</v>
+        <v>1.016284875768</v>
       </c>
       <c r="S25">
-        <v>0.0007588925095062424</v>
+        <v>2.676112473728234E-05</v>
       </c>
       <c r="T25">
-        <v>0.0007588925095062426</v>
+        <v>2.676112473728234E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>20.04269466666667</v>
+      </c>
+      <c r="H26">
+        <v>60.128084</v>
+      </c>
+      <c r="I26">
+        <v>0.2842904215694163</v>
+      </c>
+      <c r="J26">
+        <v>0.2842904215694163</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.009676000000000001</v>
+      </c>
+      <c r="N26">
+        <v>0.029028</v>
+      </c>
+      <c r="O26">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="P26">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="Q26">
+        <v>0.1939331135946667</v>
+      </c>
+      <c r="R26">
+        <v>1.745398022352</v>
+      </c>
+      <c r="S26">
+        <v>4.596035551259211E-05</v>
+      </c>
+      <c r="T26">
+        <v>4.59603555125921E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>29.05628733333333</v>
+      </c>
+      <c r="H27">
+        <v>87.168862</v>
+      </c>
+      <c r="I27">
+        <v>0.4121413967840098</v>
+      </c>
+      <c r="J27">
+        <v>0.4121413967840098</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.674835</v>
+      </c>
+      <c r="N27">
+        <v>8.024505</v>
+      </c>
+      <c r="O27">
+        <v>0.0446912281379651</v>
+      </c>
+      <c r="P27">
+        <v>0.04469122813796509</v>
+      </c>
+      <c r="Q27">
+        <v>77.72077432925666</v>
+      </c>
+      <c r="R27">
+        <v>699.48696896331</v>
+      </c>
+      <c r="S27">
+        <v>0.01841910518877378</v>
+      </c>
+      <c r="T27">
+        <v>0.01841910518877377</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>29.05628733333333</v>
+      </c>
+      <c r="H28">
+        <v>87.168862</v>
+      </c>
+      <c r="I28">
+        <v>0.4121413967840098</v>
+      </c>
+      <c r="J28">
+        <v>0.4121413967840098</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>45.70030966666667</v>
+      </c>
+      <c r="N28">
+        <v>137.100929</v>
+      </c>
+      <c r="O28">
+        <v>0.7635622254414391</v>
+      </c>
+      <c r="P28">
+        <v>0.7635622254414391</v>
+      </c>
+      <c r="Q28">
+        <v>1327.881328896978</v>
+      </c>
+      <c r="R28">
+        <v>11950.9319600728</v>
+      </c>
+      <c r="S28">
+        <v>0.3146956021249417</v>
+      </c>
+      <c r="T28">
+        <v>0.3146956021249417</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>29.05628733333333</v>
+      </c>
+      <c r="H29">
+        <v>87.168862</v>
+      </c>
+      <c r="I29">
+        <v>0.4121413967840098</v>
+      </c>
+      <c r="J29">
+        <v>0.4121413967840098</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>11.46099966666667</v>
+      </c>
+      <c r="N29">
+        <v>34.382999</v>
+      </c>
+      <c r="O29">
+        <v>0.1914907464543203</v>
+      </c>
+      <c r="P29">
+        <v>0.1914907464543203</v>
+      </c>
+      <c r="Q29">
+        <v>333.0140994419042</v>
+      </c>
+      <c r="R29">
+        <v>2997.126894977138</v>
+      </c>
+      <c r="S29">
+        <v>0.07892126371489626</v>
+      </c>
+      <c r="T29">
+        <v>0.07892126371489624</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>29.05628733333333</v>
+      </c>
+      <c r="H30">
+        <v>87.168862</v>
+      </c>
+      <c r="I30">
+        <v>0.4121413967840098</v>
+      </c>
+      <c r="J30">
+        <v>0.4121413967840098</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.005634</v>
+      </c>
+      <c r="N30">
+        <v>0.016902</v>
+      </c>
+      <c r="O30">
+        <v>9.413305094680434E-05</v>
+      </c>
+      <c r="P30">
+        <v>9.413305094680433E-05</v>
+      </c>
+      <c r="Q30">
+        <v>0.163703122836</v>
+      </c>
+      <c r="R30">
+        <v>1.473328105524</v>
+      </c>
+      <c r="S30">
+        <v>3.87961271007563E-05</v>
+      </c>
+      <c r="T30">
+        <v>3.879612710075629E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>29.05628733333333</v>
+      </c>
+      <c r="H31">
+        <v>87.168862</v>
+      </c>
+      <c r="I31">
+        <v>0.4121413967840098</v>
+      </c>
+      <c r="J31">
+        <v>0.4121413967840098</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.009676000000000001</v>
+      </c>
+      <c r="N31">
+        <v>0.029028</v>
+      </c>
+      <c r="O31">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="P31">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="Q31">
+        <v>0.2811486362373333</v>
+      </c>
+      <c r="R31">
+        <v>2.530337726136</v>
+      </c>
+      <c r="S31">
+        <v>6.662962829728753E-05</v>
+      </c>
+      <c r="T31">
+        <v>6.662962829728752E-05</v>
       </c>
     </row>
   </sheetData>
